--- a/vocabulaire.xlsx
+++ b/vocabulaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\toeic-word\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABBA7B5-47A8-4528-9F7F-928B676BFD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BACE50-78E8-49DF-A117-E22D74ABACDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{87937F42-E66A-4808-82C1-66CE7FCAE35B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="236">
   <si>
     <t>supervisor</t>
   </si>
@@ -53,9 +53,6 @@
     <t>candidate</t>
   </si>
   <si>
-    <t>postulant</t>
-  </si>
-  <si>
     <t>goods</t>
   </si>
   <si>
@@ -164,9 +161,6 @@
     <t>identification</t>
   </si>
   <si>
-    <t>pièce d'indentité</t>
-  </si>
-  <si>
     <t>sightseeing</t>
   </si>
   <si>
@@ -348,6 +342,408 @@
   </si>
   <si>
     <t>marchandise</t>
+  </si>
+  <si>
+    <t>pièce d'identité</t>
+  </si>
+  <si>
+    <t>postulant/candidat</t>
+  </si>
+  <si>
+    <t>to browse the internet</t>
+  </si>
+  <si>
+    <t>naviguer sur Internet</t>
+  </si>
+  <si>
+    <t>a browser</t>
+  </si>
+  <si>
+    <t>un navigateur</t>
+  </si>
+  <si>
+    <t>a search engine</t>
+  </si>
+  <si>
+    <t>un moteur de recherche</t>
+  </si>
+  <si>
+    <t>the search bar</t>
+  </si>
+  <si>
+    <t>la barre de recherche</t>
+  </si>
+  <si>
+    <t>the internet</t>
+  </si>
+  <si>
+    <t>internet</t>
+  </si>
+  <si>
+    <t>an email address</t>
+  </si>
+  <si>
+    <t>une adresse email</t>
+  </si>
+  <si>
+    <t>to register</t>
+  </si>
+  <si>
+    <t>s’inscrire</t>
+  </si>
+  <si>
+    <t>a login</t>
+  </si>
+  <si>
+    <t>un identifiant de connexion</t>
+  </si>
+  <si>
+    <t>a username</t>
+  </si>
+  <si>
+    <t>un nom d’utilisateur</t>
+  </si>
+  <si>
+    <t>a password</t>
+  </si>
+  <si>
+    <t>un mot de passe</t>
+  </si>
+  <si>
+    <t>a typo (typing error)</t>
+  </si>
+  <si>
+    <t>une faute de frappe</t>
+  </si>
+  <si>
+    <t>to log in</t>
+  </si>
+  <si>
+    <t>se connecter</t>
+  </si>
+  <si>
+    <t>to log out</t>
+  </si>
+  <si>
+    <t>se déconnecter</t>
+  </si>
+  <si>
+    <t>to download</t>
+  </si>
+  <si>
+    <t>télécharger</t>
+  </si>
+  <si>
+    <t>a software</t>
+  </si>
+  <si>
+    <t>un logiciel</t>
+  </si>
+  <si>
+    <t>an update</t>
+  </si>
+  <si>
+    <t>une mise à jour</t>
+  </si>
+  <si>
+    <t>a newsletter</t>
+  </si>
+  <si>
+    <t>une lettre d’information</t>
+  </si>
+  <si>
+    <t>a desktop computer</t>
+  </si>
+  <si>
+    <t>un ordinateur fixe</t>
+  </si>
+  <si>
+    <t>a laptop</t>
+  </si>
+  <si>
+    <t>un ordinateur portable</t>
+  </si>
+  <si>
+    <t>a mobile phone</t>
+  </si>
+  <si>
+    <t>un téléphone portable</t>
+  </si>
+  <si>
+    <t>a network</t>
+  </si>
+  <si>
+    <t>un réseau</t>
+  </si>
+  <si>
+    <t>a server</t>
+  </si>
+  <si>
+    <t>un serveur (informatique)</t>
+  </si>
+  <si>
+    <t>a switchboard</t>
+  </si>
+  <si>
+    <t>le standard</t>
+  </si>
+  <si>
+    <t>a voice mail</t>
+  </si>
+  <si>
+    <t>un répondeur téléphonique</t>
+  </si>
+  <si>
+    <t>a call center</t>
+  </si>
+  <si>
+    <t>un centre d’appel</t>
+  </si>
+  <si>
+    <t>a career</t>
+  </si>
+  <si>
+    <t>une carrière</t>
+  </si>
+  <si>
+    <t>a salary</t>
+  </si>
+  <si>
+    <t>un salaire</t>
+  </si>
+  <si>
+    <t>to get fired</t>
+  </si>
+  <si>
+    <t>se faire virer</t>
+  </si>
+  <si>
+    <t>to be freelance</t>
+  </si>
+  <si>
+    <t>travailler en tant qu’indépendant</t>
+  </si>
+  <si>
+    <t>to have a full-time job</t>
+  </si>
+  <si>
+    <t>avoir un emploi à temps plein</t>
+  </si>
+  <si>
+    <t>to have a part-time job</t>
+  </si>
+  <si>
+    <t>avoir un emploi à temps partiel</t>
+  </si>
+  <si>
+    <t>a permanent contract</t>
+  </si>
+  <si>
+    <t>un CDI = Contrat à Durée Indéterminée</t>
+  </si>
+  <si>
+    <t>to get a promotion</t>
+  </si>
+  <si>
+    <t>obtenir une promotion</t>
+  </si>
+  <si>
+    <t>to quit</t>
+  </si>
+  <si>
+    <t>démissionner</t>
+  </si>
+  <si>
+    <t>to be made redundant</t>
+  </si>
+  <si>
+    <t>être licencié</t>
+  </si>
+  <si>
+    <t>to retire</t>
+  </si>
+  <si>
+    <t>partir à la retraite</t>
+  </si>
+  <si>
+    <t>to be self-employed</t>
+  </si>
+  <si>
+    <t>être à son compte</t>
+  </si>
+  <si>
+    <t>a fixed-term contract</t>
+  </si>
+  <si>
+    <t>un CDD – Contrat à Durée Déterminée</t>
+  </si>
+  <si>
+    <t>a temp</t>
+  </si>
+  <si>
+    <t>un intérimaire</t>
+  </si>
+  <si>
+    <t>to be unemployed</t>
+  </si>
+  <si>
+    <t>être sans emploi</t>
+  </si>
+  <si>
+    <t>to recruit</t>
+  </si>
+  <si>
+    <t>recruter</t>
+  </si>
+  <si>
+    <t>a position</t>
+  </si>
+  <si>
+    <t>un poste</t>
+  </si>
+  <si>
+    <t>a team</t>
+  </si>
+  <si>
+    <t>une équipe</t>
+  </si>
+  <si>
+    <t>the staff</t>
+  </si>
+  <si>
+    <t>un personnel</t>
+  </si>
+  <si>
+    <t>to apply</t>
+  </si>
+  <si>
+    <t>postuler</t>
+  </si>
+  <si>
+    <t>an interviewer</t>
+  </si>
+  <si>
+    <t>personne qui mène un entretien</t>
+  </si>
+  <si>
+    <t>an interviewee</t>
+  </si>
+  <si>
+    <t>personne qui passe un entretien</t>
+  </si>
+  <si>
+    <t>an interview panel</t>
+  </si>
+  <si>
+    <t>un jury d’entretien</t>
+  </si>
+  <si>
+    <t>an interview</t>
+  </si>
+  <si>
+    <t>un entretien</t>
+  </si>
+  <si>
+    <t>an applicant</t>
+  </si>
+  <si>
+    <t>un postulant</t>
+  </si>
+  <si>
+    <t>a resumé</t>
+  </si>
+  <si>
+    <t>un CV</t>
+  </si>
+  <si>
+    <t>a cover letter</t>
+  </si>
+  <si>
+    <t>une lettre de motivation</t>
+  </si>
+  <si>
+    <t>a candidate</t>
+  </si>
+  <si>
+    <t>un candidat</t>
+  </si>
+  <si>
+    <t>the food industry</t>
+  </si>
+  <si>
+    <t>l’industrie alimentaire</t>
+  </si>
+  <si>
+    <t>the primary sector</t>
+  </si>
+  <si>
+    <t>le secteur primaire</t>
+  </si>
+  <si>
+    <t>the secondary sector</t>
+  </si>
+  <si>
+    <t>le secteur secondaire</t>
+  </si>
+  <si>
+    <t>the tertiary sector</t>
+  </si>
+  <si>
+    <t>le secteur tertiaire</t>
+  </si>
+  <si>
+    <t>an assembly line</t>
+  </si>
+  <si>
+    <t>une chaîne de montage</t>
+  </si>
+  <si>
+    <t>a factory</t>
+  </si>
+  <si>
+    <t>une usine</t>
+  </si>
+  <si>
+    <t>to manufacture</t>
+  </si>
+  <si>
+    <t>fabriquer au sein d’une usine</t>
+  </si>
+  <si>
+    <t>to produce</t>
+  </si>
+  <si>
+    <t>produire</t>
+  </si>
+  <si>
+    <t>a quality control</t>
+  </si>
+  <si>
+    <t>le contrôle qualité</t>
+  </si>
+  <si>
+    <t>the raw materials</t>
+  </si>
+  <si>
+    <t>les matières premières</t>
+  </si>
+  <si>
+    <t>a shift</t>
+  </si>
+  <si>
+    <t>une plage horaire de travail</t>
+  </si>
+  <si>
+    <t>a trade union</t>
+  </si>
+  <si>
+    <t>un syndicat</t>
+  </si>
+  <si>
+    <t>a warehouse</t>
+  </si>
+  <si>
+    <t>un entrepôt</t>
   </si>
 </sst>
 </file>
@@ -383,8 +779,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B63A27-A288-4382-902F-775BF9661451}">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78:B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,399 +1127,927 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
         <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
         <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
         <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
         <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
         <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
         <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
         <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
         <v>37</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
         <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
